--- a/StructureDefinition-ext-R5-DeviceUsage.device.xlsx
+++ b/StructureDefinition-ext-R5-DeviceUsage.device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -431,7 +431,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -462,7 +462,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -823,7 +823,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="104.16796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DeviceUsage.device.xlsx
+++ b/StructureDefinition-ext-R5-DeviceUsage.device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `DeviceUseStatement.device` 1..1 `Reference(http://hl7.org/fhir/StructureDefinition/Device)`
 *  R4: `DeviceUseStatement.device` 1..1 `Reference(http://hl7.org/fhir/StructureDefinition/Device)`
 Following are the generation technical comments:
-Element `DeviceUsage.device` is mapped to FHIR R4 element `DeviceUseStatement.device`.</t>
+Element `DeviceUsage.device` has is mapped to FHIR R4 element `DeviceUseStatement.device`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -430,8 +430,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -462,8 +462,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -823,7 +823,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DeviceUsage.device.xlsx
+++ b/StructureDefinition-ext-R5-DeviceUsage.device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -430,8 +430,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -462,8 +461,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -478,7 +476,7 @@
     <t>Extension.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition)
 </t>
   </si>
   <si>
@@ -823,7 +821,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="95.9453125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DeviceUsage.device.xlsx
+++ b/StructureDefinition-ext-R5-DeviceUsage.device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `DeviceUseStatement.device` 1..1 `Reference(http://hl7.org/fhir/StructureDefinition/Device)`
 *  R4: `DeviceUseStatement.device` 1..1 `Reference(http://hl7.org/fhir/StructureDefinition/Device)`
 Following are the generation technical comments:
-Element `DeviceUsage.device` has is mapped to FHIR R4 element `DeviceUseStatement.device`, but has no comparisons.</t>
+Element `DeviceUsage.device` is mapped to FHIR R4 element `DeviceUseStatement.device` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -430,7 +430,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -461,7 +461,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -476,7 +476,7 @@
     <t>Extension.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -821,7 +821,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="95.9453125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="131.76171875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
